--- a/excel/constructivos.xlsx
+++ b/excel/constructivos.xlsx
@@ -8,84 +8,86 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpereira/code/PlanificacionProgramacionOperaciones2019/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAD343D-F954-9642-8A56-1871B2032D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6686732-673D-964D-AE49-0540CD71C281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{80854456-ED8B-9A44-BA00-FEB7648CFAD2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="14900" activeTab="5" xr2:uid="{80854456-ED8B-9A44-BA00-FEB7648CFAD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="5" r:id="rId1"/>
     <sheet name="Random" sheetId="1" r:id="rId2"/>
-    <sheet name="Greedy" sheetId="2" r:id="rId3"/>
-    <sheet name="Solver" sheetId="6" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="7" r:id="rId3"/>
+    <sheet name="Greedy" sheetId="2" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="8" r:id="rId5"/>
+    <sheet name="Solver" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Datos!$E$5:$S$5</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Solver!$E$5:$S$7</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">Solver!$E$5:$S$7</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Datos!$E$5:$S$5</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Solver!$E$5:$S$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">Solver!$E$5:$S$7</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Datos!$E$5:$S$5</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Solver!$E$9:$S$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">Solver!$E$9:$S$9</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Datos!$E$5:$S$5</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Datos!$E$13</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">Solver!$E$17</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">Solver!$E$17</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">5</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">binario</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">binario</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">entero</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="31">
   <si>
     <t>propiedad</t>
   </si>
@@ -560,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1606E10F-195E-1748-AF00-71A6A06C9700}">
   <dimension ref="C1:S14"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,21 +735,66 @@
       </c>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="E5" s="2">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:S5" ca="1" si="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
@@ -757,8 +804,8 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>SUMIF($E$5:$S$5,D7,$E$3:$S$3)</f>
-        <v>0</v>
+        <f ca="1">SUMIF($E$5:$S$5,D7,$E$3:$S$3)</f>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.2">
@@ -766,8 +813,8 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E9" si="1">SUMIF($E$5:$S$5,D8,$E$3:$S$3)</f>
-        <v>0</v>
+        <f t="shared" ref="E8:E9" ca="1" si="2">SUMIF($E$5:$S$5,D8,$E$3:$S$3)</f>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.2">
@@ -775,8 +822,8 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.2">
@@ -784,8 +831,8 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <f>MIN(E7:E9)</f>
-        <v>0</v>
+        <f ca="1">MIN(E7:E9)</f>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.2">
@@ -793,8 +840,8 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <f>MAX(E7:E9)</f>
-        <v>0</v>
+        <f ca="1">MAX(E7:E9)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.2">
@@ -802,8 +849,8 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <f>E12-E11</f>
-        <v>0</v>
+        <f ca="1">E12-E11</f>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.2">
@@ -823,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD7455F-4B5C-8942-A7C0-51035421E2BD}">
   <dimension ref="C1:S14"/>
   <sheetViews>
-    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:S5"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,7 +1053,7 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1014,39 +1061,39 @@
       </c>
       <c r="I5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -1054,7 +1101,7 @@
       </c>
       <c r="S5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.2">
@@ -1066,7 +1113,7 @@
       </c>
       <c r="E7">
         <f ca="1">SUMIF($E$5:$S$5,D7,$E$3:$S$3)</f>
-        <v>51</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.2">
@@ -1075,7 +1122,7 @@
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E9" ca="1" si="2">SUMIF($E$5:$S$5,D8,$E$3:$S$3)</f>
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.2">
@@ -1084,7 +1131,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>420</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.2">
@@ -1093,7 +1140,7 @@
       </c>
       <c r="E11">
         <f ca="1">MIN(E7:E9)</f>
-        <v>51</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.2">
@@ -1102,7 +1149,7 @@
       </c>
       <c r="E12">
         <f ca="1">MAX(E7:E9)</f>
-        <v>420</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.2">
@@ -1111,7 +1158,7 @@
       </c>
       <c r="E13">
         <f ca="1">E12-E11</f>
-        <v>369</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.2">
@@ -1128,19 +1175,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FEC05D-609F-FD43-86F7-9F3ED58478E9}">
-  <dimension ref="C1:T14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A20EBCA-D21A-824B-9168-3439360AA10D}">
+  <dimension ref="C1:S9"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:S5"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="19" width="5.5" customWidth="1"/>
+    <col min="1" max="2" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="19" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E1" s="1">
         <v>1</v>
       </c>
@@ -1201,7 +1250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>16</v>
       </c>
@@ -1301,400 +1350,255 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.2">
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <f>E12</f>
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <f>F12</f>
         <v>3</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:S5" si="1">G12</f>
         <v>3</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O5" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="S5" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <f>D7+IF(E5=1,E3)</f>
+        <f>D7+IF(E5=1,E3,0)</f>
         <v>45</v>
       </c>
       <c r="F7">
-        <f>E7+IF(F5=1,F3)</f>
+        <f>E7+IF(F5=1,F3,0)</f>
         <v>45</v>
       </c>
       <c r="G7">
-        <f>F7+IF(G5=1,G3)</f>
+        <f>F7+IF(G5=1,G3,0)</f>
         <v>45</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:S7" si="2">G7+IF(H5=1,H3)</f>
+        <f>G7+IF(H5=1,H3,0)</f>
         <v>45</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f>H7+IF(I5=1,I3,0)</f>
         <v>45</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f>I7+IF(J5=1,J3,0)</f>
         <v>89</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f>J7+IF(K5=1,K3,0)</f>
         <v>89</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f>K7+IF(L5=1,L3,0)</f>
         <v>124</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f>L7+IF(M5=1,M3,0)</f>
         <v>124</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f>M7+IF(N5=1,N3,0)</f>
         <v>220</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
+        <f>N7+IF(O5=1,O3,0)</f>
         <v>220</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
+        <f>O7+IF(P5=1,P3,0)</f>
         <v>220</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
+        <f>P7+IF(Q5=1,Q3,0)</f>
         <v>220</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
+        <f>Q7+IF(R5=1,R3,0)</f>
         <v>220</v>
       </c>
       <c r="S7">
-        <f t="shared" si="2"/>
+        <f>R7+IF(S5=1,S3,0)</f>
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <f>D8+IF(E5=2,E3)</f>
+        <f>D8+IF(E5=2,E3,0)</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>E8+IF(F5=2,F3)</f>
+        <f>E8+IF(F5=2,F3,0)</f>
         <v>34</v>
       </c>
       <c r="G8">
-        <f>F8+IF(G5=2,G3)</f>
+        <f>F8+IF(G5=2,G3,0)</f>
         <v>34</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:S8" si="3">G8+IF(H5=2,H3)</f>
+        <f>G8+IF(H5=2,H3,0)</f>
         <v>34</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f>H8+IF(I5=2,I3,0)</f>
         <v>87</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f>I8+IF(J5=2,J3,0)</f>
         <v>87</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f>J8+IF(K5=2,K3,0)</f>
         <v>177</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f>K8+IF(L5=2,L3,0)</f>
         <v>177</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
+        <f>L8+IF(M5=2,M3,0)</f>
         <v>177</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
+        <f>M8+IF(N5=2,N3,0)</f>
         <v>177</v>
       </c>
       <c r="O8">
-        <f t="shared" si="3"/>
+        <f>N8+IF(O5=2,O3,0)</f>
         <v>177</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
+        <f>O8+IF(P5=2,P3,0)</f>
         <v>194</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="3"/>
+        <f>P8+IF(Q5=2,Q3,0)</f>
         <v>194</v>
       </c>
       <c r="R8">
-        <f t="shared" si="3"/>
+        <f>Q8+IF(R5=2,R3,0)</f>
         <v>244</v>
       </c>
       <c r="S8">
-        <f t="shared" si="3"/>
+        <f>R8+IF(S5=2,S3,0)</f>
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <f>D9+IF(E5=3,E3)</f>
+        <f>D9+IF(E5=3,E3,0)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>E9+IF(F5=3,F3)</f>
+        <f>E9+IF(F5=3,F3,0)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>F9+IF(G5=3,G3)</f>
+        <f>F9+IF(G5=3,G3,0)</f>
         <v>17</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:S9" si="4">G9+IF(H5=3,H3)</f>
+        <f>G9+IF(H5=3,H3,0)</f>
         <v>98</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f>H9+IF(I5=3,I3,0)</f>
         <v>98</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <f>I9+IF(J5=3,J3,0)</f>
         <v>98</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
+        <f>J9+IF(K5=3,K3,0)</f>
         <v>98</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f>K9+IF(L5=3,L3,0)</f>
         <v>98</v>
       </c>
       <c r="M9">
-        <f t="shared" si="4"/>
+        <f>L9+IF(M5=3,M3,0)</f>
         <v>169</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
+        <f>M9+IF(N5=3,N3,0)</f>
         <v>169</v>
       </c>
       <c r="O9">
-        <f t="shared" si="4"/>
+        <f>N9+IF(O5=3,O3,0)</f>
         <v>180</v>
       </c>
       <c r="P9">
-        <f t="shared" si="4"/>
+        <f>O9+IF(P5=3,P3,0)</f>
         <v>180</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f>P9+IF(Q5=3,Q3,0)</f>
         <v>214</v>
       </c>
       <c r="R9">
-        <f t="shared" si="4"/>
+        <f>Q9+IF(R5=3,R3,0)</f>
         <v>214</v>
       </c>
       <c r="S9">
-        <f t="shared" si="4"/>
+        <f>R9+IF(S5=3,S3,0)</f>
         <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <f>MIN(E7:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f>MIN(F7:F9)</f>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f>MIN(G7:G9)</f>
-        <v>17</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ref="H11:R11" si="5">MIN(H7:H9)</f>
-        <v>34</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="5"/>
-        <v>87</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="5"/>
-        <v>98</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="5"/>
-        <v>124</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="5"/>
-        <v>169</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="5"/>
-        <v>177</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="5"/>
-        <v>194</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="5"/>
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <f>IF(E7=E11,1,IF(E8=E11,2,3))</f>
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <f>IF(F7=F11,1,IF(F8=F11,2,3))</f>
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <f>IF(G7=G11,1,IF(G8=G11,2,3))</f>
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ref="H12:R12" si="6">IF(H7=H11,1,IF(H8=H11,2,3))</f>
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="S14" t="s">
-        <v>27</v>
-      </c>
-      <c r="T14">
-        <f>MAX(S7:S9)-MIN(S7:S9)</f>
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1703,11 +1607,811 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FEC05D-609F-FD43-86F7-9F3ED58478E9}">
+  <dimension ref="C1:T14"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="19" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <f>E1+1</f>
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <f t="shared" ref="G1:S1" si="0">F1+1</f>
+        <v>3</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N1" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1">
+        <v>44</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45</v>
+      </c>
+      <c r="M3" s="1">
+        <v>50</v>
+      </c>
+      <c r="N3" s="1">
+        <v>53</v>
+      </c>
+      <c r="O3" s="1">
+        <v>55</v>
+      </c>
+      <c r="P3" s="1">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>81</v>
+      </c>
+      <c r="R3" s="1">
+        <v>90</v>
+      </c>
+      <c r="S3" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <f>E12</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <f>F12</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:S5" si="1">G12</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>D7+IF(E5=1,E3)</f>
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <f>E7+IF(F5=1,F3)</f>
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <f>F7+IF(G5=1,G3)</f>
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <f>G7+IF(H5=1,H3)</f>
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <f>H7+IF(I5=1,I3)</f>
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <f>I7+IF(J5=1,J3)</f>
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <f>J7+IF(K5=1,K3)</f>
+        <v>89</v>
+      </c>
+      <c r="L7">
+        <f>K7+IF(L5=1,L3)</f>
+        <v>89</v>
+      </c>
+      <c r="M7">
+        <f>L7+IF(M5=1,M3)</f>
+        <v>89</v>
+      </c>
+      <c r="N7">
+        <f>M7+IF(N5=1,N3)</f>
+        <v>142</v>
+      </c>
+      <c r="O7">
+        <f>N7+IF(O5=1,O3)</f>
+        <v>142</v>
+      </c>
+      <c r="P7">
+        <f>O7+IF(P5=1,P3)</f>
+        <v>142</v>
+      </c>
+      <c r="Q7">
+        <f>P7+IF(Q5=1,Q3)</f>
+        <v>223</v>
+      </c>
+      <c r="R7">
+        <f>Q7+IF(R5=1,R3)</f>
+        <v>223</v>
+      </c>
+      <c r="S7">
+        <f>R7+IF(S5=1,S3)</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>D8+IF(E5=2,E3)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>E8+IF(F5=2,F3)</f>
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <f>F8+IF(G5=2,G3)</f>
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <f>G8+IF(H5=2,H3)</f>
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <f>H8+IF(I5=2,I3)</f>
+        <v>51</v>
+      </c>
+      <c r="J8">
+        <f>I8+IF(J5=2,J3)</f>
+        <v>51</v>
+      </c>
+      <c r="K8">
+        <f>J8+IF(K5=2,K3)</f>
+        <v>51</v>
+      </c>
+      <c r="L8">
+        <f>K8+IF(L5=2,L3)</f>
+        <v>96</v>
+      </c>
+      <c r="M8">
+        <f>L8+IF(M5=2,M3)</f>
+        <v>96</v>
+      </c>
+      <c r="N8">
+        <f>M8+IF(N5=2,N3)</f>
+        <v>96</v>
+      </c>
+      <c r="O8">
+        <f>N8+IF(O5=2,O3)</f>
+        <v>151</v>
+      </c>
+      <c r="P8">
+        <f>O8+IF(P5=2,P3)</f>
+        <v>151</v>
+      </c>
+      <c r="Q8">
+        <f>P8+IF(Q5=2,Q3)</f>
+        <v>151</v>
+      </c>
+      <c r="R8">
+        <f>Q8+IF(R5=2,R3)</f>
+        <v>241</v>
+      </c>
+      <c r="S8">
+        <f>R8+IF(S5=2,S3)</f>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>D9+IF(E5=3,E3)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>E9+IF(F5=3,F3)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>F9+IF(G5=3,G3)</f>
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <f>G9+IF(H5=3,H3)</f>
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <f>H9+IF(I5=3,I3)</f>
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <f>I9+IF(J5=3,J3)</f>
+        <v>52</v>
+      </c>
+      <c r="K9">
+        <f>J9+IF(K5=3,K3)</f>
+        <v>52</v>
+      </c>
+      <c r="L9">
+        <f>K9+IF(L5=3,L3)</f>
+        <v>52</v>
+      </c>
+      <c r="M9">
+        <f>L9+IF(M5=3,M3)</f>
+        <v>102</v>
+      </c>
+      <c r="N9">
+        <f>M9+IF(N5=3,N3)</f>
+        <v>102</v>
+      </c>
+      <c r="O9">
+        <f>N9+IF(O5=3,O3)</f>
+        <v>102</v>
+      </c>
+      <c r="P9">
+        <f>O9+IF(P5=3,P3)</f>
+        <v>173</v>
+      </c>
+      <c r="Q9">
+        <f>P9+IF(Q5=3,Q3)</f>
+        <v>173</v>
+      </c>
+      <c r="R9">
+        <f>Q9+IF(R5=3,R3)</f>
+        <v>173</v>
+      </c>
+      <c r="S9">
+        <f>R9+IF(S5=3,S3)</f>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <f>MIN(E7:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>MIN(F7:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>MIN(G7:G9)</f>
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:R11" si="2">MIN(H7:H9)</f>
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <f>IF(E7=E11,1,IF(E8=E11,2,3))</f>
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f>IF(F7=F11,1,IF(F8=F11,2,3))</f>
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <f>IF(G7=G11,1,IF(G8=G11,2,3))</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:R12" si="3">IF(H7=H11,1,IF(H8=H11,2,3))</f>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14">
+        <f>MAX(S7:S9)-MIN(S7:S9)</f>
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E850816-3F91-B74A-9004-32FFD8196BFB}">
+  <dimension ref="A5:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="A13:O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f>D5+1</f>
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <f>I5+1</f>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <f>M5+1</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <f>J5+1</f>
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <f>G5+1</f>
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <f>C5+1</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <f>L5+1</f>
+        <v>14</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <f>F5+1</f>
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <f>B5+1</f>
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <f>H5+1</f>
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <f>N5+1</f>
+        <v>13</v>
+      </c>
+      <c r="M5" s="1">
+        <f>K5+1</f>
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <f>O5+1</f>
+        <v>12</v>
+      </c>
+      <c r="O5" s="1">
+        <f>A5+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>96</v>
+      </c>
+      <c r="B7" s="1">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1">
+        <v>71</v>
+      </c>
+      <c r="E7" s="1">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44</v>
+      </c>
+      <c r="J7" s="1">
+        <v>35</v>
+      </c>
+      <c r="K7" s="1">
+        <v>34</v>
+      </c>
+      <c r="L7" s="1">
+        <v>34</v>
+      </c>
+      <c r="M7" s="1">
+        <v>17</v>
+      </c>
+      <c r="N7" s="1">
+        <v>17</v>
+      </c>
+      <c r="O7" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J12" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1">
+        <v>53</v>
+      </c>
+      <c r="K13" s="1">
+        <v>55</v>
+      </c>
+      <c r="L13" s="1">
+        <v>71</v>
+      </c>
+      <c r="M13" s="1">
+        <v>81</v>
+      </c>
+      <c r="N13" s="1">
+        <v>90</v>
+      </c>
+      <c r="O13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496DEB3E-BB47-BE4E-A737-9C0C4AD70085}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1913,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -2013,10 +2717,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>1</v>
@@ -2109,7 +2813,7 @@
       </c>
       <c r="E11">
         <f>SUMPRODUCT(E5:S5,$E$3:$S$3)</f>
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -2127,7 +2831,7 @@
       </c>
       <c r="E13">
         <f>SUMPRODUCT(E7:S7,$E$3:$S$3)</f>
-        <v>369</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -2136,7 +2840,7 @@
       </c>
       <c r="E15">
         <f>MIN(E11:E13)</f>
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -2145,7 +2849,7 @@
       </c>
       <c r="E16">
         <f>MAX(E11:E13)</f>
-        <v>369</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
@@ -2154,7 +2858,7 @@
       </c>
       <c r="E17">
         <f>E16-E15</f>
-        <v>273</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.2">
